--- a/medicine/Enfance/Serge_Dalens/Serge_Dalens.xlsx
+++ b/medicine/Enfance/Serge_Dalens/Serge_Dalens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Serge Dalens, nom de plume d'Yves Marie Paul Raoul (comte) de Verdilhac, né le 3 octobre 1910 à Albertville en Savoie et mort le 9 janvier 1998 à Saint-Cloud, est un écrivain et magistrat français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serge Dalens, nom de plume d'Yves Marie Paul Raoul (comte) de Verdilhac, né le 3 octobre 1910 à Albertville en Savoie et mort le 9 janvier 1998 à Saint-Cloud, est un écrivain et magistrat français.
 Magistrat de profession, il est surtout connu pour ses nombreux romans, pour la plupart destinés à la jeunesse, et pour son rôle de directeur de la collection « Signe de piste » (1954). 
-L'auteur a également utilisé le pseudonyme collectif de Mik Fondal, avec Jean-Louis Foncine (Pierre Lamoureux)[1] et, plus confidentiellement, celui de François Thervay. Serge Dalens comme Jean-Louis Foncine ont décidé d'être inhumés au petit cimetière de Malans (Haute-Saône) où leurs sépultures sont régulièrement honorées par les scouts en visite dans le Pays Perdu.
+L'auteur a également utilisé le pseudonyme collectif de Mik Fondal, avec Jean-Louis Foncine (Pierre Lamoureux) et, plus confidentiellement, celui de François Thervay. Serge Dalens comme Jean-Louis Foncine ont décidé d'être inhumés au petit cimetière de Malans (Haute-Saône) où leurs sépultures sont régulièrement honorées par les scouts en visite dans le Pays Perdu.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Joseph de Verdilhac qui est officier de l'armée française sous la Troisième République puis sous le régime de Vichy, il connaît un grand nombre de déménagements. Il découvre le scoutisme peu après la Première Guerre mondiale, alors que son père est en garnison à Mayence. Études au lycée français de la ville, proche de la citadelle de Mayence. Il ne quittera plus le mouvement scout. En 1925, il arrive à Montpellier, passe son baccalauréat à seize ans et obtient le premier prix du concours général de littérature. Il s'oriente vers le droit, obtient sa licence en 1932, et, sur les conseils de son père, choisit la magistrature. Pour ce faire, il doit d'abord effectuer un stage comme avocat. Il prête serment à Nancy en 1932, y reste jusqu'en 1935, puis se rend à Strasbourg, où il est inscrit au Barreau du 30 juillet 1935 au 6 octobre 1937. Il quitte le Barreau à cette date et devient magistrat.
 Il fait la connaissance de Pierre Joubert en 1933, alors que celui-ci fait son service militaire dans le régiment que commande le colonel de Verdilhac. Ils élaborent ensemble le scénario du Bracelet de vermeil.  En 1935, à l'occasion de la toute première représentation du "Jeu des Ayacks" à Paris, il rencontre Jean-Louis Foncine car en lever de rideau se joue la pièce de Dalens intitulée "Le génie de la forêt". Son livre est publié en 1937 par les éditions Alsatia, une maison d'édition à Colmar (Haut-Rhin). Jeune magistrat à Dieppe, il visite régulièrement l'hôpital pour y rencontrer médecins et jeunes malades. Il en tirera l'inspiration des Contes du bourreau.
@@ -521,7 +535,7 @@
 Il continue à écrire, publie La Mort d'Éric en 1943 et prévient son jeune lecteur dans une préface : 
 « Il ne s'agit plus d'un roman mais bien d'un récit. La fiction s'efface devant la réalité. L'histoire n'est qu'un fil doré, rehaussant l'indifférente tapisserie des faits. Le livre se termine mal. Le Prince n'est pas vengé, le lecteur n'est pas consolé. Les « grandes personnes » seront probablement mécontentes, car ces pages sont tristes, tristes comme la guerre qu'elles perdirent. Sans doute prétendront-elles que ce livre « n'est pas pour les enfants ». Or, je pense, moi, qu'un garçon de quinze, seize, dix-sept ans, est un garçon. C'est-à-dire un homme. Je pense qu'il n'y a pas de raison de le traiter à la paix autrement qu'à la guerre. De le traiter dans sa maison autrement qu'en ces jours de 40 où il courait dans les champs. De lui cacher la vérité. »
 En 1945, il retrouve ses fonctions au ministère de la Justice et s'installe à Paris. Il poursuit sa carrière de magistrat, substitut du procureur au tribunal de Compiègne dans l'Oise pendant de longues années. Il terminera premier substitut du procureur de la République à Nanterre en 1983. Il devient responsable de la collection Signe de piste avec Jean-Louis Foncine en 1954. Il le restera dans toutes les maisons d'éditions qui reprirent cette collection.
-En 1985, il participe à la rédaction du programme du FN en vue des élections législatives de l'année suivante, intitulé Pour la France[2],[3]. Il fut président de la Commission de discipline et secrétaire de la Commission Justice et Sécurité du Front National. Il fait partie de l'équipe de rédaction du quotidien Présent[4].
+En 1985, il participe à la rédaction du programme du FN en vue des élections législatives de l'année suivante, intitulé Pour la France,. Il fut président de la Commission de discipline et secrétaire de la Commission Justice et Sécurité du Front National. Il fait partie de l'équipe de rédaction du quotidien Présent.
 Il épouse, le 15 mai 1941 à Paris, Marie-Odile Amiet (27 novembre 1919, Strasbourg - 30 aout 2008, Rueil-Malmaison (Hauts-de-Seine)) et ont six enfants : Françoise, Philippe, Renaud, Emmanuelle, Isabelle et Rémi.
 </t>
         </is>
@@ -551,10 +565,12 @@
           <t>Thèmes majeurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On doit notamment à Serge Dalens la saga du Prince Éric, qui parut en 6 volumes entre 1937 et 1992[5]. Chaque ouvrage de cette fameuse série fut un best-seller. Sans cesse réédités depuis sa toute première parution, les quatre premiers tomes, publiés aux Éditions Alsatia dans la collection Signe de piste entre 1937 et 1946, ont totalisé le chiffre exceptionnel de 4,5 millions d'exemplaires vendus. Les deux tomes suivants, publiés en 1984 (T 5 : 450 000 exemplaires) et 1992 (T 6 : 80 000 exemplaires)[6], ont fait des scores plus modestes mais tout à fait remarquables . Une adaptation en bandes dessinées des trois premiers romans a été publiée en 1966 et 1967 dans l'hebdomadaire J2 Jeunes, avec des scénarios de Serge Dalens et des illustrations d'Alain d'Orange remplaçant les illustrations mythiques de Pierre Joubert.
-Ses romans exaltent les valeurs traditionnelles de la chevalerie comme le courage, la fidélité, l'honneur, l'amitié ou le combat pour la justice[5]. Perfectionniste, selon les dires de son ami Jean-Louis Foncine, ses romans s'ancrent dans un contexte solidement bâti, qu'il soit historique ou social. Le scoutisme occupe une grande place dans son œuvre. Dans ses romans, il a beaucoup utilisé son expérience de magistrat s'intéressant à la délinquance juvénile (Les Voleurs), aux ravages de la drogue (La Blanche) ou à la machine judiciaire (Les Enquêtes du Chat-tigre).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On doit notamment à Serge Dalens la saga du Prince Éric, qui parut en 6 volumes entre 1937 et 1992. Chaque ouvrage de cette fameuse série fut un best-seller. Sans cesse réédités depuis sa toute première parution, les quatre premiers tomes, publiés aux Éditions Alsatia dans la collection Signe de piste entre 1937 et 1946, ont totalisé le chiffre exceptionnel de 4,5 millions d'exemplaires vendus. Les deux tomes suivants, publiés en 1984 (T 5 : 450 000 exemplaires) et 1992 (T 6 : 80 000 exemplaires), ont fait des scores plus modestes mais tout à fait remarquables . Une adaptation en bandes dessinées des trois premiers romans a été publiée en 1966 et 1967 dans l'hebdomadaire J2 Jeunes, avec des scénarios de Serge Dalens et des illustrations d'Alain d'Orange remplaçant les illustrations mythiques de Pierre Joubert.
+Ses romans exaltent les valeurs traditionnelles de la chevalerie comme le courage, la fidélité, l'honneur, l'amitié ou le combat pour la justice. Perfectionniste, selon les dires de son ami Jean-Louis Foncine, ses romans s'ancrent dans un contexte solidement bâti, qu'il soit historique ou social. Le scoutisme occupe une grande place dans son œuvre. Dans ses romans, il a beaucoup utilisé son expérience de magistrat s'intéressant à la délinquance juvénile (Les Voleurs), aux ravages de la drogue (La Blanche) ou à la machine judiciaire (Les Enquêtes du Chat-tigre).
 </t>
         </is>
       </c>
@@ -583,9 +599,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le Prince Éric, Signe de piste, réédition Fleurus[6]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Prince Éric, Signe de piste, réédition Fleurus
 Le Bracelet de vermeil, 1937
 Le Prince Éric, 1939
 La Tache de vin, 1947
@@ -593,7 +611,7 @@
 Éric le magnifique, 1984
 Ainsi régna le Prince Éric, 1992
 Les Contes du bourreau, 1943, Signe de piste, réédition Fleurus
-Les Voleurs, romans, Signe de piste, réédition Éditions de la Licorne[7]
+Les Voleurs, romans, Signe de piste, réédition Éditions de la Licorne
 Les Enfants de l'Espérance, 1954
 Le Juge avait un fils, 1967
 Jimmy, 1977
@@ -653,7 +671,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> : Chevalier de la Légion d'honneur
  : Croix de Guerre 1939-1945
@@ -685,9 +705,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Prix Renaissance des lettres 1976 pour la collection « Signe de piste »[8]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Prix Renaissance des lettres 1976 pour la collection « Signe de piste »
 Grand Prix 1988 des Jeunes Lecteurs de la Fédération des Parents d'Élèves de l'Enseignement Public pour La Blanche, Éditions Sang de la terre, 1987</t>
         </is>
       </c>
